--- a/Python/output/case-study/penalty-SA-FA-KPI-1.xlsx
+++ b/Python/output/case-study/penalty-SA-FA-KPI-1.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CB92051-5702-6E40-A443-B6AD5BEB7C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{DF189658-D10F-184F-A8FE-8F24FEADBE36}"/>
+    <workbookView xWindow="14480" yWindow="2920" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="penalty-SA-FA-KPI-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>penalty</t>
   </si>
@@ -30,11 +37,14 @@
   <si>
     <t>salvage</t>
   </si>
+  <si>
+    <t>penalty.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -888,10 +898,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3DDA73-4353-FC44-96E7-15694C416F8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -906,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -914,13 +926,13 @@
         <v>0.25</v>
       </c>
       <c r="B2">
-        <v>50956.941619999998</v>
+        <v>48145.013486500597</v>
       </c>
       <c r="C2">
-        <v>38871.708550000003</v>
+        <v>32208.442335035899</v>
       </c>
       <c r="D2">
-        <v>1383.5480689999999</v>
+        <v>1902.9004538940901</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -928,13 +940,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>57230.056980000001</v>
+        <v>55998.104169000202</v>
       </c>
       <c r="C3">
-        <v>50206.662089999998</v>
+        <v>45924.860067405403</v>
       </c>
       <c r="D3">
-        <v>698.66967039999997</v>
+        <v>854.82306017610699</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -942,13 +954,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>62993.629249999998</v>
+        <v>62237.1473834629</v>
       </c>
       <c r="C4">
-        <v>60643.955399999999</v>
+        <v>57167.626047763297</v>
       </c>
       <c r="D4">
-        <v>257.54462319999999</v>
+        <v>351.74452509743298</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -956,13 +968,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>67884.397190000003</v>
+        <v>67247.824988271896</v>
       </c>
       <c r="C5">
-        <v>69355.44803</v>
+        <v>65586.874699341904</v>
       </c>
       <c r="D5">
-        <v>125.5449677</v>
+        <v>153.735068768806</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -970,13 +982,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72435.767789999998</v>
+        <v>71917.057965426793</v>
       </c>
       <c r="C6">
-        <v>80029.750839999993</v>
+        <v>76379.697874262303</v>
       </c>
       <c r="D6">
-        <v>34.952167760000002</v>
+        <v>57.274080436023802</v>
       </c>
     </row>
   </sheetData>

--- a/Python/output/case-study/penalty-SA-FA-KPI-1.xlsx
+++ b/Python/output/case-study/penalty-SA-FA-KPI-1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43343CDD-051C-4D4D-884B-51ADE743D53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14480" yWindow="2920" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="4600" yWindow="2700" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="penalty-SA-FA-KPI-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -898,11 +899,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,13 +927,13 @@
         <v>0.25</v>
       </c>
       <c r="B2">
-        <v>48145.013486500597</v>
+        <v>58678.250584431502</v>
       </c>
       <c r="C2">
-        <v>32208.442335035899</v>
+        <v>32795.244783174901</v>
       </c>
       <c r="D2">
-        <v>1902.9004538940901</v>
+        <v>1710.7427053470799</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -940,13 +941,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>55998.104169000202</v>
+        <v>73388.813122539796</v>
       </c>
       <c r="C3">
-        <v>45924.860067405403</v>
+        <v>46516.996115184003</v>
       </c>
       <c r="D3">
-        <v>854.82306017610699</v>
+        <v>721.93149924716204</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -954,13 +955,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>62237.1473834629</v>
+        <v>85096.275590217905</v>
       </c>
       <c r="C4">
-        <v>57167.626047763297</v>
+        <v>57777.725226495997</v>
       </c>
       <c r="D4">
-        <v>351.74452509743298</v>
+        <v>275.19814288144102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -968,13 +969,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>67247.824988271896</v>
+        <v>93798.865661818301</v>
       </c>
       <c r="C5">
-        <v>65586.874699341904</v>
+        <v>66320.906625502001</v>
       </c>
       <c r="D5">
-        <v>153.735068768806</v>
+        <v>115.789470286728</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -982,13 +983,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>71917.057965426793</v>
+        <v>104266.33112780099</v>
       </c>
       <c r="C6">
-        <v>76379.697874262303</v>
+        <v>76709.103088738193</v>
       </c>
       <c r="D6">
-        <v>57.274080436023802</v>
+        <v>36.520467540113003</v>
       </c>
     </row>
   </sheetData>

--- a/Python/output/case-study/penalty-SA-FA-KPI-1.xlsx
+++ b/Python/output/case-study/penalty-SA-FA-KPI-1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43343CDD-051C-4D4D-884B-51ADE743D53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="2700" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4600" yWindow="2700" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="penalty-SA-FA-KPI-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -899,11 +898,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -927,13 +926,13 @@
         <v>0.25</v>
       </c>
       <c r="B2">
-        <v>58678.250584431502</v>
+        <v>58643.807797054498</v>
       </c>
       <c r="C2">
-        <v>32795.244783174901</v>
+        <v>32765.234998247099</v>
       </c>
       <c r="D2">
-        <v>1710.7427053470799</v>
+        <v>1715.1757077961699</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -941,13 +940,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>73388.813122539796</v>
+        <v>73395.0073361994</v>
       </c>
       <c r="C3">
-        <v>46516.996115184003</v>
+        <v>46523.187283071398</v>
       </c>
       <c r="D3">
-        <v>721.93149924716204</v>
+        <v>721.92845347583295</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -955,13 +954,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>85096.275590217905</v>
+        <v>85104.733203326701</v>
       </c>
       <c r="C4">
-        <v>57777.725226495997</v>
+        <v>57788.213950614001</v>
       </c>
       <c r="D4">
-        <v>275.19814288144102</v>
+        <v>277.22925389091398</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -969,13 +968,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>93798.865661818301</v>
+        <v>93821.9518878526</v>
       </c>
       <c r="C5">
-        <v>66320.906625502001</v>
+        <v>66342.553604917004</v>
       </c>
       <c r="D5">
-        <v>115.789470286728</v>
+        <v>114.35022366793299</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -983,13 +982,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>104266.33112780099</v>
+        <v>104210.498158174</v>
       </c>
       <c r="C6">
-        <v>76709.103088738193</v>
+        <v>76654.343338613995</v>
       </c>
       <c r="D6">
-        <v>36.520467540113003</v>
+        <v>37.593687041302999</v>
       </c>
     </row>
   </sheetData>
